--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3720.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3720.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.353761914293104</v>
+        <v>1.35395348072052</v>
       </c>
       <c r="B1">
-        <v>2.841238841780364</v>
+        <v>3.514934539794922</v>
       </c>
       <c r="C1">
-        <v>6.339759602950434</v>
+        <v>3.306158065795898</v>
       </c>
       <c r="D1">
-        <v>1.985433575221224</v>
+        <v>1.558985114097595</v>
       </c>
       <c r="E1">
-        <v>1.032436924167768</v>
+        <v>1.236286520957947</v>
       </c>
     </row>
   </sheetData>
